--- a/backend/MSP/unique.xlsx
+++ b/backend/MSP/unique.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -3905,10 +3905,10 @@
     <xf numFmtId="49" fontId="7" fillId="5" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -18588,8 +18588,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView topLeftCell="A99" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18600,11 +18600,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>923</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -19082,7 +19082,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19092,11 +19092,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>924</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -19287,8 +19287,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19299,11 +19299,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>945</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -19346,7 +19346,7 @@
         <v>25</v>
       </c>
       <c r="C5" s="22" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -19704,7 +19704,7 @@
   <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19715,11 +19715,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>952</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -20207,18 +20207,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>949</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="36" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
@@ -20276,7 +20276,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="33">
+      <c r="A7" s="32">
         <v>5</v>
       </c>
       <c r="B7">
@@ -20299,8 +20299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C192"/>
   <sheetViews>
-    <sheetView topLeftCell="A182" workbookViewId="0">
-      <selection activeCell="B192" sqref="B192"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -20310,11 +20310,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="33" t="s">
         <v>1203</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
     </row>
     <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="20" t="s">
